--- a/rc2014_sound_card/tone_value_calculator.xlsx
+++ b/rc2014_sound_card/tone_value_calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="18270" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="18270" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,6 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -190,6 +193,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,14 +486,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,7 +526,7 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -520,7 +541,7 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -540,7 +561,7 @@
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="17">
         <f>D$51*2^(A3-5)</f>
         <v>16.338750000000001</v>
       </c>
@@ -560,7 +581,7 @@
         <f>DEC2HEX(G3+256*F3)</f>
         <v>1848</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="15">
         <f>$C$1/(16*(G3+256*F3))</f>
         <v>16.338883526383526</v>
       </c>
@@ -583,7 +604,7 @@
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="17">
         <f>D$52*2^(A4-5)</f>
         <v>17.318750000000001</v>
       </c>
@@ -603,7 +624,7 @@
         <f t="shared" ref="H4:H67" si="4">DEC2HEX(G4+256*F4)</f>
         <v>16E8</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="15">
         <f t="shared" ref="I4:I67" si="5">$C$1/(16*(G4+256*F4))</f>
         <v>17.319662346521145</v>
       </c>
@@ -626,7 +647,7 @@
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="17">
         <f>D$53*2^(A5-5)</f>
         <v>18.375624999999999</v>
       </c>
@@ -646,7 +667,7 @@
         <f t="shared" si="4"/>
         <v>1597</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="15">
         <f t="shared" si="5"/>
         <v>18.375701103672878</v>
       </c>
@@ -669,7 +690,7 @@
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="17">
         <f>D$54*2^(A6-5)</f>
         <v>19.459375000000001</v>
       </c>
@@ -689,7 +710,7 @@
         <f t="shared" si="4"/>
         <v>1463</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="15">
         <f t="shared" si="5"/>
         <v>19.460145621766621</v>
       </c>
@@ -712,7 +733,7 @@
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="17">
         <f>D$55*2^(A7-5)</f>
         <v>20.6175</v>
       </c>
@@ -732,7 +753,7 @@
         <f t="shared" si="4"/>
         <v>133E</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="15">
         <f t="shared" si="5"/>
         <v>20.617641088103937</v>
       </c>
@@ -755,7 +776,7 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="17">
         <f>D$56*2^(A8-5)</f>
         <v>21.853124999999999</v>
       </c>
@@ -775,7 +796,7 @@
         <f t="shared" si="4"/>
         <v>1227</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="15">
         <f t="shared" si="5"/>
         <v>21.855498170862923</v>
       </c>
@@ -798,7 +819,7 @@
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="17">
         <f>D$57*2^(A9-5)</f>
         <v>23.091875000000002</v>
       </c>
@@ -818,7 +839,7 @@
         <f t="shared" si="4"/>
         <v>112E</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="15">
         <f t="shared" si="5"/>
         <v>23.092883128694861</v>
       </c>
@@ -841,7 +862,7 @@
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="17">
         <f>D$58*2^(A10-5)</f>
         <v>24.478750000000002</v>
       </c>
@@ -861,7 +882,7 @@
         <f t="shared" si="4"/>
         <v>1035</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="15">
         <f t="shared" si="5"/>
         <v>24.478790069896359</v>
       </c>
@@ -884,7 +905,7 @@
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="17">
         <f>D$59*2^(A11-5)</f>
         <v>25.945625</v>
       </c>
@@ -904,7 +925,7 @@
         <f t="shared" si="4"/>
         <v>F4A</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="15">
         <f t="shared" si="5"/>
         <v>25.948518140010219</v>
       </c>
@@ -927,7 +948,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <f>D$60*2^(A12-5)</f>
         <v>27.49</v>
       </c>
@@ -947,7 +968,7 @@
         <f t="shared" si="4"/>
         <v>E6E</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="16">
         <f t="shared" si="5"/>
         <v>27.493909041689225</v>
       </c>
@@ -970,7 +991,7 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <f>D$61*2^(A13-5)</f>
         <v>29.107500000000002</v>
       </c>
@@ -990,7 +1011,7 @@
         <f t="shared" si="4"/>
         <v>DA1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="16">
         <f t="shared" si="5"/>
         <v>29.109343651476067</v>
       </c>
@@ -1013,7 +1034,7 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <f>D$62*2^(A14-5)</f>
         <v>30.92625</v>
       </c>
@@ -1033,7 +1054,7 @@
         <f t="shared" si="4"/>
         <v>CD4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="16">
         <f t="shared" si="5"/>
         <v>30.926461632155906</v>
       </c>
@@ -1057,7 +1078,7 @@
         <f>C3</f>
         <v>c</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <f>D$51*2^(A15-5)</f>
         <v>32.677500000000002</v>
       </c>
@@ -1077,7 +1098,7 @@
         <f t="shared" si="4"/>
         <v>C24</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="16">
         <f t="shared" si="5"/>
         <v>32.677767052767052</v>
       </c>
@@ -1100,7 +1121,7 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <f>D$52*2^(A16-5)</f>
         <v>34.637500000000003</v>
       </c>
@@ -1120,7 +1141,7 @@
         <f t="shared" si="4"/>
         <v>B74</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="16">
         <f t="shared" si="5"/>
         <v>34.63932469304229</v>
       </c>
@@ -1143,7 +1164,7 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="14">
         <f>D$53*2^(A17-5)</f>
         <v>36.751249999999999</v>
       </c>
@@ -1163,7 +1184,7 @@
         <f t="shared" si="4"/>
         <v>ACB</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="16">
         <f t="shared" si="5"/>
         <v>36.758052841114733</v>
       </c>
@@ -1186,7 +1207,7 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="14">
         <f>D$54*2^(A18-5)</f>
         <v>38.918750000000003</v>
       </c>
@@ -1206,7 +1227,7 @@
         <f t="shared" si="4"/>
         <v>A31</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="16">
         <f t="shared" si="5"/>
         <v>38.927750095822155</v>
       </c>
@@ -1229,7 +1250,7 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="14">
         <f>D$55*2^(A19-5)</f>
         <v>41.234999999999999</v>
       </c>
@@ -1249,7 +1270,7 @@
         <f t="shared" si="4"/>
         <v>99F</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="16">
         <f t="shared" si="5"/>
         <v>41.235282176207875</v>
       </c>
@@ -1272,7 +1293,7 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="14">
         <f>D$56*2^(A20-5)</f>
         <v>43.706249999999997</v>
       </c>
@@ -1292,7 +1313,7 @@
         <f t="shared" si="4"/>
         <v>913</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="16">
         <f t="shared" si="5"/>
         <v>43.720404649160571</v>
       </c>
@@ -1315,7 +1336,7 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="14">
         <f>D$57*2^(A21-5)</f>
         <v>46.183750000000003</v>
       </c>
@@ -1335,7 +1356,7 @@
         <f t="shared" si="4"/>
         <v>897</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="16">
         <f t="shared" si="5"/>
         <v>46.185766257389723</v>
       </c>
@@ -1358,7 +1379,7 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="14">
         <f>D$58*2^(A22-5)</f>
         <v>48.957500000000003</v>
       </c>
@@ -1378,7 +1399,7 @@
         <f t="shared" si="4"/>
         <v>81A</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="16">
         <f t="shared" si="5"/>
         <v>48.969382835101257</v>
       </c>
@@ -1401,7 +1422,7 @@
       <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="14">
         <f>D$59*2^(A23-5)</f>
         <v>51.891249999999999</v>
       </c>
@@ -1421,7 +1442,7 @@
         <f t="shared" si="4"/>
         <v>7A5</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="16">
         <f t="shared" si="5"/>
         <v>51.897036280020437</v>
       </c>
@@ -1444,7 +1465,7 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="14">
         <f>D$60*2^(A24-5)</f>
         <v>54.98</v>
       </c>
@@ -1464,7 +1485,7 @@
         <f t="shared" si="4"/>
         <v>737</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="16">
         <f t="shared" si="5"/>
         <v>54.98781808337845</v>
       </c>
@@ -1487,7 +1508,7 @@
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="14">
         <f>D$61*2^(A25-5)</f>
         <v>58.215000000000003</v>
       </c>
@@ -1507,7 +1528,7 @@
         <f t="shared" si="4"/>
         <v>6D0</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="16">
         <f t="shared" si="5"/>
         <v>58.235378440366972</v>
       </c>
@@ -1530,7 +1551,7 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="14">
         <f>D$62*2^(A26-5)</f>
         <v>61.852499999999999</v>
       </c>
@@ -1550,7 +1571,7 @@
         <f t="shared" si="4"/>
         <v>66A</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="16">
         <f t="shared" si="5"/>
         <v>61.852923264311812</v>
       </c>
@@ -1574,7 +1595,7 @@
         <f>C15</f>
         <v>c</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="14">
         <f>D$51*2^(A27-5)</f>
         <v>65.355000000000004</v>
       </c>
@@ -1594,7 +1615,7 @@
         <f t="shared" si="4"/>
         <v>612</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="16">
         <f t="shared" si="5"/>
         <v>65.355534105534105</v>
       </c>
@@ -1617,7 +1638,7 @@
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="14">
         <f>D$52*2^(A28-5)</f>
         <v>69.275000000000006</v>
       </c>
@@ -1637,7 +1658,7 @@
         <f t="shared" si="4"/>
         <v>5BA</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="16">
         <f t="shared" si="5"/>
         <v>69.278649386084581</v>
       </c>
@@ -1660,7 +1681,7 @@
       <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="18">
         <f>D$53*2^(A29-5)</f>
         <v>73.502499999999998</v>
       </c>
@@ -1680,7 +1701,7 @@
         <f t="shared" si="4"/>
         <v>565</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="16">
         <f t="shared" si="5"/>
         <v>73.542722664735692</v>
       </c>
@@ -1703,7 +1724,7 @@
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="18">
         <f>D$54*2^(A30-5)</f>
         <v>77.837500000000006</v>
       </c>
@@ -1723,7 +1744,7 @@
         <f t="shared" si="4"/>
         <v>518</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="16">
         <f t="shared" si="5"/>
         <v>77.885352760736197</v>
       </c>
@@ -1746,7 +1767,7 @@
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="18">
         <f>D$55*2^(A31-5)</f>
         <v>82.47</v>
       </c>
@@ -1766,7 +1787,7 @@
         <f t="shared" si="4"/>
         <v>4CF</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="16">
         <f t="shared" si="5"/>
         <v>82.504061738424042</v>
       </c>
@@ -1789,7 +1810,7 @@
       <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="18">
         <f>D$56*2^(A32-5)</f>
         <v>87.412499999999994</v>
       </c>
@@ -1809,7 +1830,7 @@
         <f t="shared" si="4"/>
         <v>489</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="16">
         <f t="shared" si="5"/>
         <v>87.478466838931951</v>
       </c>
@@ -1832,7 +1853,7 @@
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="18">
         <f>D$57*2^(A33-5)</f>
         <v>92.367500000000007</v>
       </c>
@@ -1852,7 +1873,7 @@
         <f t="shared" si="4"/>
         <v>44B</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="16">
         <f t="shared" si="5"/>
         <v>92.413557779799817</v>
       </c>
@@ -1875,7 +1896,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="18">
         <f>D$58*2^(A34-5)</f>
         <v>97.915000000000006</v>
       </c>
@@ -1895,7 +1916,7 @@
         <f t="shared" si="4"/>
         <v>40D</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="16">
         <f t="shared" si="5"/>
         <v>97.938765670202514</v>
       </c>
@@ -1918,7 +1939,7 @@
       <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="18">
         <f>D$59*2^(A35-5)</f>
         <v>103.7825</v>
       </c>
@@ -1938,7 +1959,7 @@
         <f t="shared" si="4"/>
         <v>3D2</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="16">
         <f t="shared" si="5"/>
         <v>103.84713701431492</v>
       </c>
@@ -1961,7 +1982,7 @@
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="18">
         <f>D$60*2^(A36-5)</f>
         <v>109.96</v>
       </c>
@@ -1981,7 +2002,7 @@
         <f t="shared" si="4"/>
         <v>39B</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="16">
         <f t="shared" si="5"/>
         <v>110.03521126760563</v>
       </c>
@@ -2004,7 +2025,7 @@
       <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="18">
         <f>D$61*2^(A37-5)</f>
         <v>116.43</v>
       </c>
@@ -2024,7 +2045,7 @@
         <f t="shared" si="4"/>
         <v>368</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="16">
         <f t="shared" si="5"/>
         <v>116.47075688073394</v>
       </c>
@@ -2047,7 +2068,7 @@
       <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="18">
         <f>D$62*2^(A38-5)</f>
         <v>123.705</v>
       </c>
@@ -2067,7 +2088,7 @@
         <f t="shared" si="4"/>
         <v>335</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="16">
         <f t="shared" si="5"/>
         <v>123.70584652862362</v>
       </c>
@@ -2091,7 +2112,7 @@
         <f>C27</f>
         <v>c</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="18">
         <f>D$51*2^(A39-5)</f>
         <v>130.71</v>
       </c>
@@ -2111,7 +2132,7 @@
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="16">
         <f t="shared" si="5"/>
         <v>130.71106821106821</v>
       </c>
@@ -2134,7 +2155,7 @@
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="18">
         <f>D$52*2^(A40-5)</f>
         <v>138.55000000000001</v>
       </c>
@@ -2154,7 +2175,7 @@
         <f t="shared" si="4"/>
         <v>2DD</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="16">
         <f t="shared" si="5"/>
         <v>138.55729877216916</v>
       </c>
@@ -2177,7 +2198,7 @@
       <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="14">
         <f>D$53*2^(A41-5)</f>
         <v>147.005</v>
       </c>
@@ -2197,7 +2218,7 @@
         <f t="shared" si="4"/>
         <v>2B2</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="16">
         <f t="shared" si="5"/>
         <v>147.19202898550725</v>
       </c>
@@ -2220,7 +2241,7 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="14">
         <f>D$54*2^(A42-5)</f>
         <v>155.67500000000001</v>
       </c>
@@ -2240,7 +2261,7 @@
         <f t="shared" si="4"/>
         <v>28C</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="16">
         <f t="shared" si="5"/>
         <v>155.77070552147239</v>
       </c>
@@ -2263,7 +2284,7 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="14">
         <f>D$55*2^(A43-5)</f>
         <v>164.94</v>
       </c>
@@ -2283,7 +2304,7 @@
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="16">
         <f t="shared" si="5"/>
         <v>165.14227642276424</v>
       </c>
@@ -2306,7 +2327,7 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="14">
         <f>D$56*2^(A44-5)</f>
         <v>174.82499999999999</v>
       </c>
@@ -2326,7 +2347,7 @@
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="16">
         <f t="shared" si="5"/>
         <v>175.10775862068965</v>
       </c>
@@ -2349,7 +2370,7 @@
       <c r="C45" t="s">
         <v>16</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="14">
         <f>D$57*2^(A45-5)</f>
         <v>184.73500000000001</v>
       </c>
@@ -2369,7 +2390,7 @@
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="16">
         <f t="shared" si="5"/>
         <v>184.99544626593806</v>
       </c>
@@ -2392,7 +2413,7 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="14">
         <f>D$58*2^(A46-5)</f>
         <v>195.83</v>
       </c>
@@ -2412,7 +2433,7 @@
         <f t="shared" si="4"/>
         <v>206</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="16">
         <f t="shared" si="5"/>
         <v>196.06660231660231</v>
       </c>
@@ -2435,7 +2456,7 @@
       <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="14">
         <f>D$59*2^(A47-5)</f>
         <v>207.565</v>
       </c>
@@ -2455,7 +2476,7 @@
         <f t="shared" si="4"/>
         <v>1E9</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="16">
         <f t="shared" si="5"/>
         <v>207.69427402862985</v>
       </c>
@@ -2478,7 +2499,7 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="14">
         <f>D$60*2^(A48-5)</f>
         <v>219.92</v>
       </c>
@@ -2498,7 +2519,7 @@
         <f t="shared" si="4"/>
         <v>1CD</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="16">
         <f t="shared" si="5"/>
         <v>220.30911062906725</v>
       </c>
@@ -2521,7 +2542,7 @@
       <c r="C49" t="s">
         <v>18</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="14">
         <f>D$61*2^(A49-5)</f>
         <v>232.86</v>
       </c>
@@ -2541,7 +2562,7 @@
         <f t="shared" si="4"/>
         <v>1B4</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="16">
         <f t="shared" si="5"/>
         <v>232.94151376146789</v>
       </c>
@@ -2564,7 +2585,7 @@
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="14">
         <f>D$62*2^(A50-5)</f>
         <v>247.41</v>
       </c>
@@ -2584,7 +2605,7 @@
         <f t="shared" si="4"/>
         <v>19A</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="16">
         <f t="shared" si="5"/>
         <v>247.71341463414635</v>
       </c>
@@ -2607,7 +2628,7 @@
       <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="19">
         <v>261.42</v>
       </c>
       <c r="E51" s="1">
@@ -2626,7 +2647,7 @@
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="16">
         <f t="shared" si="5"/>
         <v>261.75902061855669</v>
       </c>
@@ -2649,7 +2670,7 @@
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="20">
         <v>277.10000000000002</v>
       </c>
       <c r="E52" s="1">
@@ -2668,7 +2689,7 @@
         <f t="shared" si="4"/>
         <v>16E</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="16">
         <f t="shared" si="5"/>
         <v>277.49316939890713</v>
       </c>
@@ -2691,7 +2712,7 @@
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="19">
         <v>294.01</v>
       </c>
       <c r="E53" s="1">
@@ -2710,7 +2731,7 @@
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="16">
         <f t="shared" si="5"/>
         <v>294.3840579710145</v>
       </c>
@@ -2733,7 +2754,7 @@
       <c r="C54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="19">
         <v>311.35000000000002</v>
       </c>
       <c r="E54" s="1">
@@ -2752,7 +2773,7 @@
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="16">
         <f t="shared" si="5"/>
         <v>311.54141104294479</v>
       </c>
@@ -2775,7 +2796,7 @@
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="19">
         <v>329.88</v>
       </c>
       <c r="E55" s="1">
@@ -2794,7 +2815,7 @@
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="16">
         <f t="shared" si="5"/>
         <v>330.82247557003257</v>
       </c>
@@ -2817,7 +2838,7 @@
       <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="19">
         <v>349.65</v>
       </c>
       <c r="E56" s="1">
@@ -2836,7 +2857,7 @@
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="16">
         <f t="shared" si="5"/>
         <v>350.2155172413793</v>
       </c>
@@ -2859,7 +2880,7 @@
       <c r="C57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="19">
         <v>369.47</v>
       </c>
       <c r="E57" s="1">
@@ -2878,7 +2899,7 @@
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="16">
         <f t="shared" si="5"/>
         <v>370.66605839416059</v>
       </c>
@@ -2901,7 +2922,7 @@
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="19">
         <v>391.66</v>
       </c>
       <c r="E58" s="1">
@@ -2920,7 +2941,7 @@
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="16">
         <f t="shared" si="5"/>
         <v>392.13320463320463</v>
       </c>
@@ -2943,7 +2964,7 @@
       <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="19">
         <v>415.13</v>
       </c>
       <c r="E59" s="1">
@@ -2962,7 +2983,7 @@
         <f t="shared" si="4"/>
         <v>F4</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="16">
         <f t="shared" si="5"/>
         <v>416.23975409836066</v>
       </c>
@@ -2985,7 +3006,7 @@
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="19">
         <v>439.84</v>
       </c>
       <c r="E60" s="1">
@@ -3004,7 +3025,7 @@
         <f t="shared" si="4"/>
         <v>E6</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="16">
         <f t="shared" si="5"/>
         <v>441.57608695652175</v>
       </c>
@@ -3027,7 +3048,7 @@
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="19">
         <v>465.72</v>
       </c>
       <c r="E61" s="1">
@@ -3046,7 +3067,7 @@
         <f t="shared" si="4"/>
         <v>DA</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="16">
         <f t="shared" si="5"/>
         <v>465.88302752293578</v>
       </c>
@@ -3069,7 +3090,7 @@
       <c r="C62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="19">
         <v>494.82</v>
       </c>
       <c r="E62" s="1">
@@ -3088,7 +3109,7 @@
         <f t="shared" si="4"/>
         <v>CD</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="16">
         <f t="shared" si="5"/>
         <v>495.42682926829269</v>
       </c>
@@ -3112,7 +3133,7 @@
         <f>C51</f>
         <v>c</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="14">
         <f>D$51*2^(A63-5)</f>
         <v>522.84</v>
       </c>
@@ -3132,7 +3153,7 @@
         <f t="shared" si="4"/>
         <v>C2</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="16">
         <f t="shared" si="5"/>
         <v>523.51804123711338</v>
       </c>
@@ -3155,7 +3176,7 @@
       <c r="C64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="14">
         <f>D$52*2^(A64-5)</f>
         <v>554.20000000000005</v>
       </c>
@@ -3175,7 +3196,7 @@
         <f t="shared" si="4"/>
         <v>B7</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="16">
         <f t="shared" si="5"/>
         <v>554.98633879781426</v>
       </c>
@@ -3198,7 +3219,7 @@
       <c r="C65" t="s">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="14">
         <f>D$53*2^(A65-5)</f>
         <v>588.02</v>
       </c>
@@ -3218,7 +3239,7 @@
         <f t="shared" si="4"/>
         <v>AC</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="16">
         <f t="shared" si="5"/>
         <v>590.47965116279067</v>
       </c>
@@ -3241,7 +3262,7 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="14">
         <f>D$54*2^(A66-5)</f>
         <v>622.70000000000005</v>
       </c>
@@ -3261,7 +3282,7 @@
         <f t="shared" si="4"/>
         <v>A3</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="16">
         <f t="shared" si="5"/>
         <v>623.08282208588957</v>
       </c>
@@ -3284,7 +3305,7 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="14">
         <f>D$55*2^(A67-5)</f>
         <v>659.76</v>
       </c>
@@ -3304,7 +3325,7 @@
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="16">
         <f t="shared" si="5"/>
         <v>663.80718954248368</v>
       </c>
@@ -3327,7 +3348,7 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="14">
         <f>D$56*2^(A68-5)</f>
         <v>699.3</v>
       </c>
@@ -3347,7 +3368,7 @@
         <f t="shared" ref="H68:H122" si="11">DEC2HEX(G68+256*F68)</f>
         <v>91</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="16">
         <f t="shared" ref="I68:I122" si="12">$C$1/(16*(G68+256*F68))</f>
         <v>700.43103448275861</v>
       </c>
@@ -3370,7 +3391,7 @@
       <c r="C69" t="s">
         <v>16</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="14">
         <f>D$57*2^(A69-5)</f>
         <v>738.94</v>
       </c>
@@ -3390,7 +3411,7 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="16">
         <f t="shared" si="12"/>
         <v>741.33211678832117</v>
       </c>
@@ -3413,7 +3434,7 @@
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="14">
         <f>D$58*2^(A70-5)</f>
         <v>783.32</v>
       </c>
@@ -3433,7 +3454,7 @@
         <f t="shared" si="11"/>
         <v>81</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="16">
         <f t="shared" si="12"/>
         <v>787.30620155038764</v>
       </c>
@@ -3456,7 +3477,7 @@
       <c r="C71" t="s">
         <v>17</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="14">
         <f>D$59*2^(A71-5)</f>
         <v>830.26</v>
       </c>
@@ -3476,7 +3497,7 @@
         <f t="shared" si="11"/>
         <v>7A</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="16">
         <f t="shared" si="12"/>
         <v>832.47950819672133</v>
       </c>
@@ -3499,7 +3520,7 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="14">
         <f>D$60*2^(A72-5)</f>
         <v>879.68</v>
       </c>
@@ -3519,7 +3540,7 @@
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="16">
         <f t="shared" si="12"/>
         <v>883.1521739130435</v>
       </c>
@@ -3542,7 +3563,7 @@
       <c r="C73" t="s">
         <v>18</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="14">
         <f>D$61*2^(A73-5)</f>
         <v>931.44</v>
       </c>
@@ -3562,7 +3583,7 @@
         <f t="shared" si="11"/>
         <v>6D</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="16">
         <f t="shared" si="12"/>
         <v>931.76605504587155</v>
       </c>
@@ -3585,7 +3606,7 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="14">
         <f>D$62*2^(A74-5)</f>
         <v>989.64</v>
       </c>
@@ -3605,7 +3626,7 @@
         <f t="shared" si="11"/>
         <v>66</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="16">
         <f t="shared" si="12"/>
         <v>995.71078431372553</v>
       </c>
@@ -3629,7 +3650,7 @@
         <f>C63</f>
         <v>c</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="14">
         <f>D$51*2^(A75-5)</f>
         <v>1045.68</v>
       </c>
@@ -3649,7 +3670,7 @@
         <f t="shared" si="11"/>
         <v>61</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="16">
         <f t="shared" si="12"/>
         <v>1047.0360824742268</v>
       </c>
@@ -3672,7 +3693,7 @@
       <c r="C76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="14">
         <f>D$52*2^(A76-5)</f>
         <v>1108.4000000000001</v>
       </c>
@@ -3692,7 +3713,7 @@
         <f t="shared" si="11"/>
         <v>5B</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="16">
         <f t="shared" si="12"/>
         <v>1116.0714285714287</v>
       </c>
@@ -3715,7 +3736,7 @@
       <c r="C77" t="s">
         <v>4</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="14">
         <f>D$53*2^(A77-5)</f>
         <v>1176.04</v>
       </c>
@@ -3735,7 +3756,7 @@
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="16">
         <f t="shared" si="12"/>
         <v>1180.9593023255813</v>
       </c>
@@ -3758,7 +3779,7 @@
       <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="14">
         <f>D$54*2^(A78-5)</f>
         <v>1245.4000000000001</v>
       </c>
@@ -3778,7 +3799,7 @@
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="16">
         <f t="shared" si="12"/>
         <v>1253.858024691358</v>
       </c>
@@ -3801,7 +3822,7 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="14">
         <f>D$55*2^(A79-5)</f>
         <v>1319.52</v>
       </c>
@@ -3821,7 +3842,7 @@
         <f t="shared" si="11"/>
         <v>4C</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="16">
         <f t="shared" si="12"/>
         <v>1336.3486842105262</v>
       </c>
@@ -3844,7 +3865,7 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="14">
         <f>D$56*2^(A80-5)</f>
         <v>1398.6</v>
       </c>
@@ -3864,7 +3885,7 @@
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="16">
         <f t="shared" si="12"/>
         <v>1410.5902777777778</v>
       </c>
@@ -3887,7 +3908,7 @@
       <c r="C81" t="s">
         <v>16</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="14">
         <f>D$57*2^(A81-5)</f>
         <v>1477.88</v>
       </c>
@@ -3907,7 +3928,7 @@
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="16">
         <f t="shared" si="12"/>
         <v>1493.5661764705883</v>
       </c>
@@ -3930,7 +3951,7 @@
       <c r="C82" t="s">
         <v>7</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="14">
         <f>D$58*2^(A82-5)</f>
         <v>1566.64</v>
       </c>
@@ -3950,7 +3971,7 @@
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="16">
         <f t="shared" si="12"/>
         <v>1586.9140625</v>
       </c>
@@ -3973,7 +3994,7 @@
       <c r="C83" t="s">
         <v>17</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="14">
         <f>D$59*2^(A83-5)</f>
         <v>1660.52</v>
       </c>
@@ -3993,7 +4014,7 @@
         <f t="shared" si="11"/>
         <v>3D</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="16">
         <f t="shared" si="12"/>
         <v>1664.9590163934427</v>
       </c>
@@ -4016,7 +4037,7 @@
       <c r="C84" t="s">
         <v>8</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="14">
         <f>D$60*2^(A84-5)</f>
         <v>1759.36</v>
       </c>
@@ -4036,7 +4057,7 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I84" s="16">
         <f t="shared" si="12"/>
         <v>1781.7982456140351</v>
       </c>
@@ -4059,7 +4080,7 @@
       <c r="C85" t="s">
         <v>18</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="14">
         <f>D$61*2^(A85-5)</f>
         <v>1862.88</v>
       </c>
@@ -4079,7 +4100,7 @@
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85" s="16">
         <f t="shared" si="12"/>
         <v>1880.787037037037</v>
       </c>
@@ -4102,7 +4123,7 @@
       <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="14">
         <f>D$62*2^(A86-5)</f>
         <v>1979.28</v>
       </c>
@@ -4122,7 +4143,7 @@
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="16">
         <f t="shared" si="12"/>
         <v>1991.4215686274511</v>
       </c>
@@ -4146,7 +4167,7 @@
         <f>C75</f>
         <v>c</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="14">
         <f>D$51*2^(A87-5)</f>
         <v>2091.36</v>
       </c>
@@ -4166,7 +4187,7 @@
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87" s="16">
         <f t="shared" si="12"/>
         <v>2115.8854166666665</v>
       </c>
@@ -4189,7 +4210,7 @@
       <c r="C88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="14">
         <f>D$52*2^(A88-5)</f>
         <v>2216.8000000000002</v>
       </c>
@@ -4209,7 +4230,7 @@
         <f t="shared" si="11"/>
         <v>2D</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88" s="16">
         <f t="shared" si="12"/>
         <v>2256.9444444444443</v>
       </c>
@@ -4232,7 +4253,7 @@
       <c r="C89" t="s">
         <v>4</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="14">
         <f>D$53*2^(A89-5)</f>
         <v>2352.08</v>
       </c>
@@ -4252,7 +4273,7 @@
         <f t="shared" si="11"/>
         <v>2B</v>
       </c>
-      <c r="I89" s="5">
+      <c r="I89" s="16">
         <f t="shared" si="12"/>
         <v>2361.9186046511627</v>
       </c>
@@ -4275,7 +4296,7 @@
       <c r="C90" t="s">
         <v>15</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="14">
         <f>D$54*2^(A90-5)</f>
         <v>2490.8000000000002</v>
       </c>
@@ -4295,7 +4316,7 @@
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I90" s="16">
         <f t="shared" si="12"/>
         <v>2539.0625</v>
       </c>
@@ -4318,7 +4339,7 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="14">
         <f>D$55*2^(A91-5)</f>
         <v>2639.04</v>
       </c>
@@ -4338,7 +4359,7 @@
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91" s="16">
         <f t="shared" si="12"/>
         <v>2672.6973684210525</v>
       </c>
@@ -4361,7 +4382,7 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="14">
         <f>D$56*2^(A92-5)</f>
         <v>2797.2</v>
       </c>
@@ -4381,7 +4402,7 @@
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="I92" s="5">
+      <c r="I92" s="16">
         <f t="shared" si="12"/>
         <v>2821.1805555555557</v>
       </c>
@@ -4404,7 +4425,7 @@
       <c r="C93" t="s">
         <v>16</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="14">
         <f>D$57*2^(A93-5)</f>
         <v>2955.76</v>
       </c>
@@ -4424,7 +4445,7 @@
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="I93" s="5">
+      <c r="I93" s="16">
         <f t="shared" si="12"/>
         <v>2987.1323529411766</v>
       </c>
@@ -4447,7 +4468,7 @@
       <c r="C94" t="s">
         <v>7</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="14">
         <f>D$58*2^(A94-5)</f>
         <v>3133.28</v>
       </c>
@@ -4467,7 +4488,7 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="I94" s="5">
+      <c r="I94" s="16">
         <f t="shared" si="12"/>
         <v>3173.828125</v>
       </c>
@@ -4490,7 +4511,7 @@
       <c r="C95" t="s">
         <v>17</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="14">
         <f>D$59*2^(A95-5)</f>
         <v>3321.04</v>
       </c>
@@ -4510,7 +4531,7 @@
         <f t="shared" si="11"/>
         <v>1E</v>
       </c>
-      <c r="I95" s="5">
+      <c r="I95" s="16">
         <f t="shared" si="12"/>
         <v>3385.4166666666665</v>
       </c>
@@ -4533,7 +4554,7 @@
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="14">
         <f>D$60*2^(A96-5)</f>
         <v>3518.72</v>
       </c>
@@ -4553,7 +4574,7 @@
         <f t="shared" si="11"/>
         <v>1C</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I96" s="16">
         <f t="shared" si="12"/>
         <v>3627.2321428571427</v>
       </c>
@@ -4576,7 +4597,7 @@
       <c r="C97" t="s">
         <v>18</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="14">
         <f>D$61*2^(A97-5)</f>
         <v>3725.76</v>
       </c>
@@ -4596,7 +4617,7 @@
         <f t="shared" si="11"/>
         <v>1B</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97" s="16">
         <f t="shared" si="12"/>
         <v>3761.5740740740739</v>
       </c>
@@ -4619,7 +4640,7 @@
       <c r="C98" t="s">
         <v>9</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="14">
         <f>D$62*2^(A98-5)</f>
         <v>3958.56</v>
       </c>
@@ -4639,7 +4660,7 @@
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I98" s="16">
         <f t="shared" si="12"/>
         <v>4062.5</v>
       </c>
@@ -4663,7 +4684,7 @@
         <f>C87</f>
         <v>c</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="14">
         <f>D$51*2^(A99-5)</f>
         <v>4182.72</v>
       </c>
@@ -4683,7 +4704,7 @@
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="16">
         <f t="shared" si="12"/>
         <v>4231.770833333333</v>
       </c>
@@ -4706,7 +4727,7 @@
       <c r="C100" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="14">
         <f>D$52*2^(A100-5)</f>
         <v>4433.6000000000004</v>
       </c>
@@ -4726,7 +4747,7 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="I100" s="5">
+      <c r="I100" s="16">
         <f t="shared" si="12"/>
         <v>4616.477272727273</v>
       </c>
@@ -4749,7 +4770,7 @@
       <c r="C101" t="s">
         <v>4</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="14">
         <f>D$53*2^(A101-5)</f>
         <v>4704.16</v>
       </c>
@@ -4769,7 +4790,7 @@
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I101" s="16">
         <f t="shared" si="12"/>
         <v>4836.3095238095239</v>
       </c>
@@ -4792,7 +4813,7 @@
       <c r="C102" t="s">
         <v>15</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="14">
         <f>D$54*2^(A102-5)</f>
         <v>4981.6000000000004</v>
       </c>
@@ -4812,7 +4833,7 @@
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="16">
         <f t="shared" si="12"/>
         <v>5078.125</v>
       </c>
@@ -4835,7 +4856,7 @@
       <c r="C103" t="s">
         <v>5</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="14">
         <f>D$55*2^(A103-5)</f>
         <v>5278.08</v>
       </c>
@@ -4855,7 +4876,7 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103" s="16">
         <f t="shared" si="12"/>
         <v>5345.394736842105</v>
       </c>
@@ -4878,7 +4899,7 @@
       <c r="C104" t="s">
         <v>6</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="14">
         <f>D$56*2^(A104-5)</f>
         <v>5594.4</v>
       </c>
@@ -4898,7 +4919,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I104" s="16">
         <f t="shared" si="12"/>
         <v>5642.3611111111113</v>
       </c>
@@ -4921,7 +4942,7 @@
       <c r="C105" t="s">
         <v>16</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="14">
         <f>D$57*2^(A105-5)</f>
         <v>5911.52</v>
       </c>
@@ -4941,7 +4962,7 @@
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="I105" s="5">
+      <c r="I105" s="16">
         <f t="shared" si="12"/>
         <v>5974.2647058823532</v>
       </c>
@@ -4964,7 +4985,7 @@
       <c r="C106" t="s">
         <v>7</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="14">
         <f>D$58*2^(A106-5)</f>
         <v>6266.56</v>
       </c>
@@ -4984,7 +5005,7 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="16">
         <f t="shared" si="12"/>
         <v>6347.65625</v>
       </c>
@@ -5007,7 +5028,7 @@
       <c r="C107" t="s">
         <v>17</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="14">
         <f>D$59*2^(A107-5)</f>
         <v>6642.08</v>
       </c>
@@ -5027,7 +5048,7 @@
         <f t="shared" si="11"/>
         <v>F</v>
       </c>
-      <c r="I107" s="5">
+      <c r="I107" s="16">
         <f t="shared" si="12"/>
         <v>6770.833333333333</v>
       </c>
@@ -5050,7 +5071,7 @@
       <c r="C108" t="s">
         <v>8</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="14">
         <f>D$60*2^(A108-5)</f>
         <v>7037.44</v>
       </c>
@@ -5070,7 +5091,7 @@
         <f t="shared" si="11"/>
         <v>E</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="16">
         <f t="shared" si="12"/>
         <v>7254.4642857142853</v>
       </c>
@@ -5093,7 +5114,7 @@
       <c r="C109" t="s">
         <v>18</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="14">
         <f>D$61*2^(A109-5)</f>
         <v>7451.52</v>
       </c>
@@ -5113,7 +5134,7 @@
         <f t="shared" si="11"/>
         <v>D</v>
       </c>
-      <c r="I109" s="5">
+      <c r="I109" s="16">
         <f t="shared" si="12"/>
         <v>7812.5</v>
       </c>
@@ -5136,7 +5157,7 @@
       <c r="C110" t="s">
         <v>9</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="14">
         <f>D$62*2^(A110-5)</f>
         <v>7917.12</v>
       </c>
@@ -5156,7 +5177,7 @@
         <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="I110" s="5">
+      <c r="I110" s="16">
         <f t="shared" si="12"/>
         <v>8463.5416666666661</v>
       </c>
@@ -5180,7 +5201,7 @@
         <f>C99</f>
         <v>c</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="14">
         <f>D$51*2^(A111-5)</f>
         <v>8365.44</v>
       </c>
@@ -5200,7 +5221,7 @@
         <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="I111" s="5">
+      <c r="I111" s="16">
         <f t="shared" si="12"/>
         <v>8463.5416666666661</v>
       </c>
@@ -5223,7 +5244,7 @@
       <c r="C112" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="14">
         <f>D$52*2^(A112-5)</f>
         <v>8867.2000000000007</v>
       </c>
@@ -5243,7 +5264,7 @@
         <f t="shared" si="11"/>
         <v>B</v>
       </c>
-      <c r="I112" s="5">
+      <c r="I112" s="16">
         <f t="shared" si="12"/>
         <v>9232.954545454546</v>
       </c>
@@ -5266,7 +5287,7 @@
       <c r="C113" t="s">
         <v>4</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="14">
         <f>D$53*2^(A113-5)</f>
         <v>9408.32</v>
       </c>
@@ -5286,7 +5307,7 @@
         <f t="shared" si="11"/>
         <v>A</v>
       </c>
-      <c r="I113" s="5">
+      <c r="I113" s="16">
         <f t="shared" si="12"/>
         <v>10156.25</v>
       </c>
@@ -5309,7 +5330,7 @@
       <c r="C114" t="s">
         <v>15</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="14">
         <f>D$54*2^(A114-5)</f>
         <v>9963.2000000000007</v>
       </c>
@@ -5329,7 +5350,7 @@
         <f t="shared" si="11"/>
         <v>A</v>
       </c>
-      <c r="I114" s="5">
+      <c r="I114" s="16">
         <f t="shared" si="12"/>
         <v>10156.25</v>
       </c>
@@ -5352,7 +5373,7 @@
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="14">
         <f>D$55*2^(A115-5)</f>
         <v>10556.16</v>
       </c>
@@ -5372,7 +5393,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="I115" s="5">
+      <c r="I115" s="16">
         <f t="shared" si="12"/>
         <v>11284.722222222223</v>
       </c>
@@ -5395,7 +5416,7 @@
       <c r="C116" t="s">
         <v>6</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="14">
         <f>D$56*2^(A116-5)</f>
         <v>11188.8</v>
       </c>
@@ -5415,7 +5436,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="I116" s="5">
+      <c r="I116" s="16">
         <f t="shared" si="12"/>
         <v>11284.722222222223</v>
       </c>
@@ -5438,7 +5459,7 @@
       <c r="C117" t="s">
         <v>16</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="14">
         <f>D$57*2^(A117-5)</f>
         <v>11823.04</v>
       </c>
@@ -5458,7 +5479,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="I117" s="5">
+      <c r="I117" s="16">
         <f t="shared" si="12"/>
         <v>12695.3125</v>
       </c>
@@ -5481,7 +5502,7 @@
       <c r="C118" t="s">
         <v>7</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="14">
         <f>D$58*2^(A118-5)</f>
         <v>12533.12</v>
       </c>
@@ -5501,7 +5522,7 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="I118" s="5">
+      <c r="I118" s="16">
         <f t="shared" si="12"/>
         <v>12695.3125</v>
       </c>
@@ -5524,7 +5545,7 @@
       <c r="C119" t="s">
         <v>17</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="14">
         <f>D$59*2^(A119-5)</f>
         <v>13284.16</v>
       </c>
@@ -5544,7 +5565,7 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I119" s="16">
         <f t="shared" si="12"/>
         <v>14508.928571428571</v>
       </c>
@@ -5567,7 +5588,7 @@
       <c r="C120" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="17">
         <f>D$60*2^(A120-5)</f>
         <v>14074.88</v>
       </c>
@@ -5587,7 +5608,7 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="I120" s="8">
+      <c r="I120" s="15">
         <f t="shared" si="12"/>
         <v>14508.928571428571</v>
       </c>
@@ -5610,7 +5631,7 @@
       <c r="C121" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="17">
         <f>D$61*2^(A121-5)</f>
         <v>14903.04</v>
       </c>
@@ -5630,7 +5651,7 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="I121" s="8">
+      <c r="I121" s="15">
         <f t="shared" si="12"/>
         <v>16927.083333333332</v>
       </c>
@@ -5653,7 +5674,7 @@
       <c r="C122" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="17">
         <f>D$62*2^(A122-5)</f>
         <v>15834.24</v>
       </c>
@@ -5673,7 +5694,7 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="I122" s="8">
+      <c r="I122" s="15">
         <f t="shared" si="12"/>
         <v>16927.083333333332</v>
       </c>
